--- a/medicine/Handicap/Auto-handicap/Auto-handicap.xlsx
+++ b/medicine/Handicap/Auto-handicap/Auto-handicap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’auto-handicap (en anglais self-handicapping) est un mécanisme de défense qui consiste à se donner soi-même un handicap pour une tâche à accomplir, particulièrement lorsqu'elle nous inquiète (par exemple passer un examen). Ce handicap permet de protéger l'image de soi en attribuant un échec ou résultat médiocre au handicap au lieu de soi-même. C'est donc également un biais d'attribution causale particulier, consistant ici à attribuer un échec à des causes externes plutôt qu'à un manque de compétence, ou plus justement à un ensemble de facteurs impliquant soi-même en premier lieu. Il s'agit aussi d'une sorte de rationalisation, précisément de "se fabriquer des excuses", mais ici à l'avance grâce au prétendu handicap.
 Dans certains cas, il s'agit de préserver l'image de soi auprès d'autrui plutôt que sa propre estime de soi —bien que l'un n'empêche pas l'autre. Bien que le handicap affirmé soit parfois véritable, dans ces cas-là en particulier il peut aussi bien être exagéré, déformé, voire inventé ; ou encore similaire à ce qu'autrui doit également surmonter (mais la façon de dire masque parfois ce fait).
